--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_LSPM_Lineal_Estacionario_ARMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_LSPM_Lineal_Estacionario_ARMA.xlsx
@@ -549,16 +549,16 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.2847585165973112</v>
+        <v>0.3412959319354949</v>
       </c>
       <c r="D2">
-        <v>0.43555094883583</v>
+        <v>0.5170447553144439</v>
       </c>
       <c r="E2">
-        <v>0.335249325321229</v>
+        <v>0.3730469830511152</v>
       </c>
       <c r="F2">
-        <v>0.9331564413743783</v>
+        <v>0.9382657485717207</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -566,19 +566,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2847585165973112</v>
+        <v>0.3412959319354949</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.9283356688648496</v>
+        <v>0.9269216456849638</v>
       </c>
       <c r="E3">
-        <v>0.7641801587857431</v>
+        <v>0.6099374695588731</v>
       </c>
       <c r="F3">
-        <v>0.178903929391506</v>
+        <v>0.1495124185556427</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -586,19 +586,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.43555094883583</v>
+        <v>0.5170447553144439</v>
       </c>
       <c r="C4">
-        <v>0.9283356688648496</v>
+        <v>0.9269216456849638</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.8451010895275974</v>
+        <v>0.8403870580241333</v>
       </c>
       <c r="F4">
-        <v>0.164642201066562</v>
+        <v>0.2814721920435808</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -606,19 +606,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.335249325321229</v>
+        <v>0.3730469830511152</v>
       </c>
       <c r="C5">
-        <v>0.7641801587857431</v>
+        <v>0.6099374695588731</v>
       </c>
       <c r="D5">
-        <v>0.8451010895275974</v>
+        <v>0.8403870580241333</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.1768936780461134</v>
+        <v>0.2430225132780002</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -626,16 +626,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9331564413743783</v>
+        <v>0.9382657485717207</v>
       </c>
       <c r="C6">
-        <v>0.178903929391506</v>
+        <v>0.1495124185556427</v>
       </c>
       <c r="D6">
-        <v>0.164642201066562</v>
+        <v>0.2814721920435808</v>
       </c>
       <c r="E6">
-        <v>0.1768936780461134</v>
+        <v>0.2430225132780002</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -679,16 +679,16 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1.070889251089001</v>
+        <v>0.9850970677827603</v>
       </c>
       <c r="D2">
-        <v>0.7803829686529227</v>
+        <v>0.6646961987255042</v>
       </c>
       <c r="E2">
-        <v>0.9645652386301644</v>
+        <v>0.9202110934151185</v>
       </c>
       <c r="F2">
-        <v>-0.08391830968673485</v>
+        <v>-0.07885273352504625</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -696,19 +696,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-1.070889251089001</v>
+        <v>-0.9850970677827603</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-0.08998635908387539</v>
+        <v>-0.09338414755428226</v>
       </c>
       <c r="E3">
-        <v>-0.3001667892276486</v>
+        <v>-0.5218426137174194</v>
       </c>
       <c r="F3">
-        <v>-1.346109437861458</v>
+        <v>-1.525062306412314</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -716,19 +716,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.7803829686529227</v>
+        <v>-0.6646961987255042</v>
       </c>
       <c r="C4">
-        <v>0.08998635908387539</v>
+        <v>0.09338414755428226</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-0.1954787179051827</v>
+        <v>-0.2051770616041748</v>
       </c>
       <c r="F4">
-        <v>-1.391756051122829</v>
+        <v>-1.120214612877305</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -736,19 +736,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.9645652386301644</v>
+        <v>-0.9202110934151185</v>
       </c>
       <c r="C5">
-        <v>0.3001667892276486</v>
+        <v>0.5218426137174194</v>
       </c>
       <c r="D5">
-        <v>0.1954787179051827</v>
+        <v>0.2051770616041748</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-1.352374383526346</v>
+        <v>-1.218900349771393</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -756,16 +756,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.08391830968673485</v>
+        <v>0.07885273352504625</v>
       </c>
       <c r="C6">
-        <v>1.346109437861458</v>
+        <v>1.525062306412314</v>
       </c>
       <c r="D6">
-        <v>1.391756051122829</v>
+        <v>1.120214612877305</v>
       </c>
       <c r="E6">
-        <v>1.352374383526346</v>
+        <v>1.218900349771393</v>
       </c>
       <c r="F6">
         <v>0</v>

--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_LSPM_Lineal_Estacionario_ARMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_LSPM_Lineal_Estacionario_ARMA.xlsx
@@ -549,16 +549,16 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.3412959319354949</v>
+        <v>0.8203950978074555</v>
       </c>
       <c r="D2">
-        <v>0.5170447553144439</v>
+        <v>0.7552585096991409</v>
       </c>
       <c r="E2">
-        <v>0.3730469830511152</v>
+        <v>0.992373579728534</v>
       </c>
       <c r="F2">
-        <v>0.9382657485717207</v>
+        <v>0.5414605050226311</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -566,19 +566,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3412959319354949</v>
+        <v>0.8203950978074555</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.9269216456849638</v>
+        <v>0.9924498473531631</v>
       </c>
       <c r="E3">
-        <v>0.6099374695588731</v>
+        <v>0.8710839834730391</v>
       </c>
       <c r="F3">
-        <v>0.1495124185556427</v>
+        <v>0.4961629218815391</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -586,19 +586,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5170447553144439</v>
+        <v>0.7552585096991409</v>
       </c>
       <c r="C4">
-        <v>0.9269216456849638</v>
+        <v>0.9924498473531631</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.8403870580241333</v>
+        <v>0.7698304863237166</v>
       </c>
       <c r="F4">
-        <v>0.2814721920435808</v>
+        <v>0.3948025050486004</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -606,19 +606,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3730469830511152</v>
+        <v>0.992373579728534</v>
       </c>
       <c r="C5">
-        <v>0.6099374695588731</v>
+        <v>0.8710839834730391</v>
       </c>
       <c r="D5">
-        <v>0.8403870580241333</v>
+        <v>0.7698304863237166</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.2430225132780002</v>
+        <v>0.494174207210182</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -626,16 +626,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9382657485717207</v>
+        <v>0.5414605050226311</v>
       </c>
       <c r="C6">
-        <v>0.1495124185556427</v>
+        <v>0.4961629218815391</v>
       </c>
       <c r="D6">
-        <v>0.2814721920435808</v>
+        <v>0.3948025050486004</v>
       </c>
       <c r="E6">
-        <v>0.2430225132780002</v>
+        <v>0.494174207210182</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -679,16 +679,16 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.9850970677827603</v>
+        <v>0.2297677511870513</v>
       </c>
       <c r="D2">
-        <v>0.6646961987255042</v>
+        <v>0.3156294096212022</v>
       </c>
       <c r="E2">
-        <v>0.9202110934151185</v>
+        <v>0.009667656580990194</v>
       </c>
       <c r="F2">
-        <v>-0.07885273352504625</v>
+        <v>-0.6202576861876408</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -696,19 +696,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.9850970677827603</v>
+        <v>-0.2297677511870513</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-0.09338414755428226</v>
+        <v>0.009570972575448245</v>
       </c>
       <c r="E3">
-        <v>-0.5218426137174194</v>
+        <v>-0.1641858075396932</v>
       </c>
       <c r="F3">
-        <v>-1.525062306412314</v>
+        <v>-0.6920221862080308</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -716,19 +716,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.6646961987255042</v>
+        <v>-0.3156294096212022</v>
       </c>
       <c r="C4">
-        <v>0.09338414755428226</v>
+        <v>-0.009570972575448245</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-0.2051770616041748</v>
+        <v>-0.2962330331711323</v>
       </c>
       <c r="F4">
-        <v>-1.120214612877305</v>
+        <v>-0.8679288183567526</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -736,19 +736,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.9202110934151185</v>
+        <v>-0.009667656580990194</v>
       </c>
       <c r="C5">
-        <v>0.5218426137174194</v>
+        <v>0.1641858075396932</v>
       </c>
       <c r="D5">
-        <v>0.2051770616041748</v>
+        <v>0.2962330331711323</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-1.218900349771393</v>
+        <v>-0.695255253617133</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -756,16 +756,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07885273352504625</v>
+        <v>0.6202576861876408</v>
       </c>
       <c r="C6">
-        <v>1.525062306412314</v>
+        <v>0.6920221862080308</v>
       </c>
       <c r="D6">
-        <v>1.120214612877305</v>
+        <v>0.8679288183567526</v>
       </c>
       <c r="E6">
-        <v>1.218900349771393</v>
+        <v>0.695255253617133</v>
       </c>
       <c r="F6">
         <v>0</v>
